--- a/FishLandings/household groups/statistics/Percent of catch = mature_output.xlsx
+++ b/FishLandings/household groups/statistics/Percent of catch = mature_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>284.421739</v>
+        <v>257.173264</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>6091.995119</v>
+        <v>44.160058</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3.246669</v>
+        <v>0.04256</v>
       </c>
       <c r="E3">
-        <v>0.040142</v>
+        <v>0.83675</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>311479.63362</v>
+        <v>225158.462954</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -490,61 +490,13 @@
         <v>1.023392</v>
       </c>
       <c r="H5">
-        <v>-10.081896</v>
+        <v>-8.753895999999999</v>
       </c>
       <c r="I5">
-        <v>12.12868</v>
+        <v>10.800679</v>
       </c>
       <c r="J5">
-        <v>0.974388</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SM + Traps-Control</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Percent of catch = mature</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>-8.173379000000001</v>
-      </c>
-      <c r="H6">
-        <v>-19.837697</v>
-      </c>
-      <c r="I6">
-        <v>3.490939</v>
-      </c>
-      <c r="J6">
-        <v>0.226404</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SM + Traps-SM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Percent of catch = mature</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>-9.196771</v>
-      </c>
-      <c r="H7">
-        <v>-17.967559</v>
-      </c>
-      <c r="I7">
-        <v>-0.425983</v>
-      </c>
-      <c r="J7">
-        <v>0.03734</v>
+        <v>0.83675</v>
       </c>
     </row>
   </sheetData>
